--- a/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,01; 69,61</t>
+          <t>60,85; 69,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,9; 76,87</t>
+          <t>68,63; 76,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,27; 74,07</t>
+          <t>64,7; 74,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,54; 71,25</t>
+          <t>63,06; 71,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,6; 80,95</t>
+          <t>72,32; 80,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,78; 70,44</t>
+          <t>61,51; 70,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,84; 69,0</t>
+          <t>63,14; 69,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,86; 77,89</t>
+          <t>71,97; 77,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,54; 71,1</t>
+          <t>64,49; 71,02</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,01; 75,32</t>
+          <t>68,84; 75,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,19; 79,72</t>
+          <t>73,14; 79,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,46; 77,75</t>
+          <t>70,53; 77,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,61; 81,58</t>
+          <t>74,77; 81,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,76; 87,45</t>
+          <t>81,61; 87,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,16; 78,38</t>
+          <t>71,46; 78,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,47; 77,4</t>
+          <t>72,66; 77,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,93; 82,54</t>
+          <t>78,16; 82,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,28; 77,68</t>
+          <t>72,28; 77,57</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,81; 80,95</t>
+          <t>73,91; 80,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,39; 85,24</t>
+          <t>79,16; 85,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,6; 80,41</t>
+          <t>73,86; 80,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,48; 84,77</t>
+          <t>79,47; 85,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,25; 89,53</t>
+          <t>84,34; 89,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,41; 86,95</t>
+          <t>81,22; 87,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,5; 82,13</t>
+          <t>77,51; 82,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,84; 86,7</t>
+          <t>82,77; 86,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,55; 82,93</t>
+          <t>78,78; 83,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,1; 82,57</t>
+          <t>74,64; 82,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,93; 89,62</t>
+          <t>83,37; 89,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,88; 83,51</t>
+          <t>76,68; 83,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,27; 88,24</t>
+          <t>82,07; 88,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,07; 93,09</t>
+          <t>87,44; 92,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,13; 89,16</t>
+          <t>83,52; 89,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,71; 84,37</t>
+          <t>79,63; 84,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,59; 90,64</t>
+          <t>86,66; 90,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,11; 85,39</t>
+          <t>80,89; 85,15</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,39; 85,23</t>
+          <t>77,34; 85,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,27; 92,47</t>
+          <t>86,13; 92,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,45; 89,09</t>
+          <t>82,92; 89,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,23; 90,21</t>
+          <t>83,0; 89,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,76; 90,71</t>
+          <t>83,75; 90,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,62; 90,79</t>
+          <t>84,68; 91,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,42; 86,65</t>
+          <t>81,17; 86,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,03; 90,63</t>
+          <t>86,24; 90,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>84,93; 89,5</t>
+          <t>84,66; 89,35</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,21; 87,7</t>
+          <t>81,43; 87,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,57; 95,09</t>
+          <t>90,3; 94,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 93,0</t>
+          <t>88,26; 93,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,4; 90,36</t>
+          <t>85,13; 90,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,31; 95,92</t>
+          <t>92,54; 96,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,52; 93,7</t>
+          <t>89,6; 93,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,41; 88,38</t>
+          <t>84,49; 88,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,11</t>
+          <t>92,48; 95,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,76; 93,03</t>
+          <t>89,56; 92,86</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,73; 77,79</t>
+          <t>74,7; 77,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,08; 84,57</t>
+          <t>82,11; 84,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,59; 81,36</t>
+          <t>78,63; 81,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,29; 82,9</t>
+          <t>80,22; 82,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,88</t>
+          <t>86,63; 88,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,16; 84,62</t>
+          <t>82,06; 84,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,96; 80,04</t>
+          <t>77,91; 80,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,8; 86,45</t>
+          <t>84,77; 86,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,74; 82,65</t>
+          <t>80,76; 82,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,85; 69,65</t>
+          <t>60,66; 69,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,63; 76,77</t>
+          <t>68,71; 76,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,7; 74,0</t>
+          <t>64,94; 73,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,06; 71,36</t>
+          <t>62,34; 70,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,32; 80,87</t>
+          <t>72,78; 80,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,51; 70,68</t>
+          <t>61,62; 70,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,14; 69,01</t>
+          <t>63,14; 69,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,97; 77,58</t>
+          <t>71,92; 77,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,49; 71,02</t>
+          <t>64,72; 71,17</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,84; 75,42</t>
+          <t>68,48; 75,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,14; 79,86</t>
+          <t>72,83; 79,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,53; 77,81</t>
+          <t>71,07; 78,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,77; 81,44</t>
+          <t>75,0; 81,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,61; 87,45</t>
+          <t>81,67; 87,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,46; 78,39</t>
+          <t>71,52; 78,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,66; 77,3</t>
+          <t>72,68; 77,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,16; 82,68</t>
+          <t>77,81; 82,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,28; 77,57</t>
+          <t>72,02; 77,3</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,91; 80,6</t>
+          <t>73,86; 80,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,16; 85,09</t>
+          <t>79,63; 85,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,54</t>
+          <t>73,77; 80,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,47; 85,1</t>
+          <t>79,39; 84,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,34; 89,34</t>
+          <t>84,18; 89,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,22; 87,04</t>
+          <t>81,24; 86,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,51; 82,04</t>
+          <t>77,69; 82,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,77; 86,79</t>
+          <t>82,75; 86,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,78; 83,09</t>
+          <t>78,65; 83,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,64; 82,32</t>
+          <t>75,08; 82,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,37; 89,7</t>
+          <t>83,92; 89,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,68; 83,46</t>
+          <t>76,58; 83,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 88,31</t>
+          <t>81,93; 88,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,44; 92,79</t>
+          <t>87,82; 92,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,52; 89,17</t>
+          <t>83,53; 89,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,63; 84,69</t>
+          <t>79,62; 84,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 90,45</t>
+          <t>86,58; 90,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 85,15</t>
+          <t>80,82; 85,35</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,34; 85,11</t>
+          <t>77,31; 84,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,13; 92,23</t>
+          <t>86,47; 92,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,92; 89,29</t>
+          <t>82,54; 89,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,0; 89,9</t>
+          <t>83,22; 89,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,75; 90,79</t>
+          <t>84,57; 91,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,68; 91,02</t>
+          <t>84,71; 90,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,17; 86,45</t>
+          <t>81,47; 86,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,24; 90,66</t>
+          <t>86,04; 90,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 89,35</t>
+          <t>84,77; 89,25</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,43; 87,64</t>
+          <t>81,53; 87,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,3; 94,91</t>
+          <t>90,25; 95,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,26; 93,12</t>
+          <t>88,12; 92,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,13; 90,43</t>
+          <t>84,95; 90,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,54; 96,0</t>
+          <t>92,52; 96,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,6; 93,84</t>
+          <t>89,35; 93,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,49; 88,42</t>
+          <t>84,53; 88,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,22</t>
+          <t>92,5; 95,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,56; 92,86</t>
+          <t>89,58; 92,88</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,7; 77,74</t>
+          <t>74,74; 77,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,11; 84,71</t>
+          <t>82,04; 84,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,46</t>
+          <t>78,63; 81,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,22; 82,89</t>
+          <t>80,33; 82,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,63; 88,91</t>
+          <t>86,68; 88,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,06; 84,61</t>
+          <t>82,03; 84,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,0</t>
+          <t>78,01; 79,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 86,4</t>
+          <t>84,73; 86,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,76; 82,7</t>
+          <t>80,73; 82,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>90,98%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,53; 87,83</t>
+          <t>80,29; 88,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,25; 95,1</t>
+          <t>87,32; 94,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,12; 92,86</t>
+          <t>87,68; 94,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,95; 90,25</t>
+          <t>85,66; 92,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,52; 96,05</t>
+          <t>91,1; 96,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,35; 93,68</t>
+          <t>87,3; 93,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,53; 88,53</t>
+          <t>84,47; 89,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,5; 95,22</t>
+          <t>90,47; 94,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,58; 92,88</t>
+          <t>88,72; 92,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>79,07; 88,91</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>91,75; 97,85</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>86,33; 93,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82,7; 90,58</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>92,17; 96,77</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89,28; 95,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82,66; 88,6</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92,74; 96,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>89,37; 93,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>76,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83,42%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>80,04%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87,75%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>83,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>78,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>85,62%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>74,74; 77,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>82,04; 84,79</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>78,63; 81,36</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>80,33; 82,85</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>86,68; 88,93</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>82,03; 84,62</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>78,01; 79,91</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>84,73; 86,46</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>80,73; 82,71</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,66; 69,57</t>
+          <t>60,73; 69,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,71; 76,76</t>
+          <t>68,71; 77,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,94; 73,92</t>
+          <t>65,04; 73,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,34; 70,85</t>
+          <t>62,29; 70,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,78; 80,79</t>
+          <t>73,21; 81,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,62; 70,68</t>
+          <t>61,69; 70,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,14; 69,02</t>
+          <t>63,14; 69,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,92; 77,82</t>
+          <t>72,08; 77,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,72; 71,17</t>
+          <t>64,7; 71,13</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,48; 75,36</t>
+          <t>68,57; 75,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,83; 79,5</t>
+          <t>73,08; 79,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,07; 78,11</t>
+          <t>70,79; 78,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,0; 81,5</t>
+          <t>75,2; 81,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,67; 87,57</t>
+          <t>81,86; 87,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,52; 78,83</t>
+          <t>71,5; 78,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,68; 77,35</t>
+          <t>72,78; 77,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,81; 82,5</t>
+          <t>78,08; 82,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,02; 77,3</t>
+          <t>72,41; 77,39</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,47</t>
+          <t>73,74; 80,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,63; 85,68</t>
+          <t>79,51; 85,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,77; 80,42</t>
+          <t>73,64; 80,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,39; 84,95</t>
+          <t>79,36; 85,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,18; 89,7</t>
+          <t>84,32; 89,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,24; 86,94</t>
+          <t>81,55; 87,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,69; 82,11</t>
+          <t>77,72; 82,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,75; 86,65</t>
+          <t>82,85; 86,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,65; 83,09</t>
+          <t>78,63; 82,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,08; 82,53</t>
+          <t>75,18; 82,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,92; 89,5</t>
+          <t>83,58; 89,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 83,15</t>
+          <t>76,5; 83,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 88,3</t>
+          <t>82,21; 88,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,82; 92,98</t>
+          <t>87,68; 93,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,53; 89,05</t>
+          <t>83,48; 89,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,62; 84,55</t>
+          <t>79,54; 84,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,58; 90,68</t>
+          <t>86,53; 90,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,82; 85,35</t>
+          <t>81,05; 85,33</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,31; 84,89</t>
+          <t>77,1; 85,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,47; 92,53</t>
+          <t>86,6; 92,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,54; 89,04</t>
+          <t>82,52; 89,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,22; 89,92</t>
+          <t>83,46; 90,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,57; 91,07</t>
+          <t>83,93; 90,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,71; 90,88</t>
+          <t>84,52; 91,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,47; 86,63</t>
+          <t>81,32; 86,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,04; 90,74</t>
+          <t>85,86; 90,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>84,77; 89,25</t>
+          <t>84,78; 89,33</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,29; 88,6</t>
+          <t>80,78; 88,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,32; 94,22</t>
+          <t>87,5; 93,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,68; 94,19</t>
+          <t>87,39; 94,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,66; 92,35</t>
+          <t>85,75; 92,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,1; 96,25</t>
+          <t>91,22; 96,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,3; 93,34</t>
+          <t>87,3; 93,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,47; 89,52</t>
+          <t>84,43; 89,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,47; 94,53</t>
+          <t>90,55; 94,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,72; 92,98</t>
+          <t>88,58; 93,01</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>79,07; 88,91</t>
+          <t>79,87; 89,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,75; 97,85</t>
+          <t>91,34; 97,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,33; 93,37</t>
+          <t>86,25; 93,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,7; 90,58</t>
+          <t>82,16; 90,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,17; 96,77</t>
+          <t>92,26; 96,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,28; 95,17</t>
+          <t>89,46; 95,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,66; 88,6</t>
+          <t>82,43; 88,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,74; 96,68</t>
+          <t>92,85; 96,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>89,37; 93,76</t>
+          <t>89,04; 93,85</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,74; 77,68</t>
+          <t>74,82; 77,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>82,04; 84,79</t>
+          <t>82,2; 84,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,36</t>
+          <t>78,54; 81,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>80,33; 82,85</t>
+          <t>80,24; 82,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,68; 88,93</t>
+          <t>86,71; 88,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,03; 84,62</t>
+          <t>82,12; 84,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>78,01; 79,91</t>
+          <t>77,85; 80,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,73; 86,46</t>
+          <t>84,79; 86,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,71</t>
+          <t>80,71; 82,65</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>322132</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>331628</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>291016</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>312369</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>331869</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>261264</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>634501</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>663497</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>552280</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>299430; 342480</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>312064; 350174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>272191; 308681</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>290556; 330067</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>314980; 349399</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>243530; 279802</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>605783; 662705</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>637468; 688559</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>526174; 578466</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>530765</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>524348</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>439679</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>489967</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>516997</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>423871</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1020731</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1041346</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>863550</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>503690; 553647</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>501436; 545321</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>417305; 461416</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>470401; 510895</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>498771; 534399</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>402920; 443167</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>989841; 1055453</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1011458; 1073559</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>834893; 892404</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>493596</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>562233</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>516607</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>567544</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>618398</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>556571</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1061140</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1180630</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1073179</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>470327; 515161</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>542154; 580582</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>491405; 536539</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>547373; 588080</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>598385; 633983</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>538035; 574358</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1031712; 1089181</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1152868; 1207769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1043389; 1100097</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>409637</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>532214</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>517805</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>440087</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>557815</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>559219</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>849723</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1090031</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1077024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>390277; 429262</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>511995; 548059</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>494231; 538355</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>423119; 456057</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>539351; 572163</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>540912; 577257</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>822330; 871532</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1062381; 1111188</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1048756; 1104184</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>314583</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>384851</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>410951</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>350716</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>392479</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>437882</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>665299</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>777330</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>848833</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>298156; 328715</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>371902; 397110</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>393497; 425860</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>337168; 364002</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>375821; 406805</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>419944; 452558</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>642992; 684503</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>753199; 794139</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>825502; 869809</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>247964</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>281329</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>304534</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>306016</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>333354</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>340426</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>553980</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>614682</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>644961</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>236341; 260327</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>270213; 290183</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>291253; 314093</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>294074; 316072</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>322903; 340478</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>327974; 350775</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>536546; 569622</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>600145; 627880</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>627972; 659359</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177277</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>237677</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>230712</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>289737</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>364947</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>371557</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>467013</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>602625</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>602269</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>167632; 187479</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>227248; 243391</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>220895; 238358</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>274339; 301455</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>355084; 373027</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>357990; 381735</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>448250; 481624</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>588358; 612969</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>584316; 615894</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2659</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5130</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5364</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2495953</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2854281</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2711305</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2756435</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3115859</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2950790</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5252388</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5970140</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5662096</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2449382; 2544630</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2812667; 2899943</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2660576; 2752130</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2709677; 2799375</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3078892; 3154466</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2905980; 2993329</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>5177785; 5322608</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5912374; 6029929</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5590496; 5724540</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>